--- a/72.xlsx
+++ b/72.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185B1504-651A-429D-AE80-CDECF7AFEE09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,20 +395,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -441,7 +440,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -459,7 +458,7 @@
         <v>65535</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -467,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -478,7 +477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -493,7 +492,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -509,7 +508,7 @@
         <v>1150.1597444089457</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -521,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>B1/(B2*B3)</f>
         <v>1150.1597444089457</v>
@@ -537,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>A10/1000</f>
         <v>1.1501597444089458</v>
@@ -553,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A11/1000</f>
         <v>1.1501597444089457E-3</v>
@@ -569,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -583,43 +582,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="G19">
         <f>B18/(G24*B20*B21)</f>
-        <v>2.447148392359459</v>
+        <v>2.3567921440261865</v>
       </c>
       <c r="I19">
         <v>65535</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20">
-        <v>62600</v>
+        <v>65000</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20">
         <f>B18/(G24*B19*B21)</f>
-        <v>153191.48936170212</v>
+        <v>2127.6595744680849</v>
       </c>
       <c r="I20">
         <v>65535</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -627,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -638,13 +637,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="C24">
         <f>C27*1000000000</f>
-        <v>869444.44444444438</v>
+        <v>65000000</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -653,77 +652,77 @@
         <v>470</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="C25">
         <f>C27*1000000</f>
-        <v>869.44444444444434</v>
+        <v>65000</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
       </c>
       <c r="G25">
         <f>B18/(B19*B20*B21)</f>
-        <v>1150.1597444089457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15.384615384615385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="C26">
         <f>C27*1000</f>
-        <v>0.86944444444444435</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>B18/(B19*B20)</f>
-        <v>1150.1597444089457</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27">
         <f>1/A27</f>
-        <v>8.6944444444444439E-4</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>A27/1000</f>
-        <v>1.1501597444089458</v>
+        <v>1.5384615384615385E-2</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28">
         <f>C27/60</f>
-        <v>1.449074074074074E-5</v>
+        <v>1.0833333333333333E-3</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>A28/1000</f>
-        <v>1.1501597444089457E-3</v>
+        <v>1.5384615384615384E-5</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29">
         <f>C28/60</f>
-        <v>2.4151234567901235E-7</v>
+        <v>1.8055555555555555E-5</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>

--- a/72.xlsx
+++ b/72.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>clock</t>
   </si>
@@ -79,19 +79,70 @@
   </si>
   <si>
     <t>v (hz)</t>
+  </si>
+  <si>
+    <t>длина сигнала</t>
+  </si>
+  <si>
+    <t>делитель</t>
+  </si>
+  <si>
+    <t>CKD</t>
+  </si>
+  <si>
+    <t>fSAMPLING</t>
+  </si>
+  <si>
+    <t>fDTS(tDTS)</t>
+  </si>
+  <si>
+    <t>fCK_INT(tCK_INT)</t>
+  </si>
+  <si>
+    <t>(1,2,4)</t>
+  </si>
+  <si>
+    <t>N(кол. сэмплов)</t>
+  </si>
+  <si>
+    <t>№ фильтра</t>
+  </si>
+  <si>
+    <t>время затраченное на выборку</t>
+  </si>
+  <si>
+    <t>(0-15)</t>
+  </si>
+  <si>
+    <t>(100-2000)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +165,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -396,19 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +475,20 @@
       <c r="I1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>72000000</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -439,8 +505,24 @@
       <c r="I2">
         <v>65535</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>72</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2">
+        <f>N1/(S7*N3*N4)</f>
+        <v>2.3567921440261865</v>
+      </c>
+      <c r="U2">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -457,16 +539,38 @@
       <c r="I3">
         <v>65535</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>65000</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <f>N1/(S7*N2*N4)</f>
+        <v>2127.6595744680849</v>
+      </c>
+      <c r="U3">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -476,8 +580,17 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -491,8 +604,21 @@
       <c r="G7">
         <v>1150</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7">
+        <f>O10*1000000000</f>
+        <v>65000000</v>
+      </c>
+      <c r="P7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -507,8 +633,22 @@
         <f>B1/(B2*B3*B4)</f>
         <v>1150.1597444089457</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8">
+        <f>O10*1000000</f>
+        <v>65000</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <f>N1/(N2*N3*N4)</f>
+        <v>15.384615384615385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -519,8 +659,18 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <f>O10*1000</f>
+        <v>65</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>B1/(B2*B3)</f>
         <v>1150.1597444089457</v>
@@ -535,8 +685,22 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <f>N1/(N2*N3)</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="N10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <f>1/M10</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>A10/1000</f>
         <v>1.1501597444089458</v>
@@ -551,8 +715,22 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <f>M10/1000</f>
+        <v>1.5384615384615385E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <f>O10/60</f>
+        <v>1.0833333333333333E-3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A11/1000</f>
         <v>1.1501597444089457E-3</v>
@@ -567,168 +745,287 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="M12">
+        <f>M11/1000</f>
+        <v>1.5384615384615384E-5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <f>O11/60</f>
+        <v>1.8055555555555555E-5</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>72000000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f>VLOOKUP(B20,J18:L34,2)</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <f>VLOOKUP(B20,J18:L34,3)</f>
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f>B19/B23</f>
         <v>72000000</v>
       </c>
-      <c r="C18" t="s">
+      <c r="J25">
+        <v>6</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <f>B25/B21</f>
+        <v>72000000</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <f>(B22/B26)*1000000</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <v>9</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J29">
         <v>10</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K29">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>72</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <f>B18/(G24*B20*B21)</f>
-        <v>2.3567921440261865</v>
-      </c>
-      <c r="I19">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>65000</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <f>B18/(G24*B19*B21)</f>
-        <v>2127.6595744680849</v>
-      </c>
-      <c r="I20">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="L29">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
+      <c r="K30">
+        <v>16</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J31">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="K31">
+        <v>16</v>
+      </c>
+      <c r="L31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J32">
+        <v>13</v>
+      </c>
+      <c r="K32">
+        <v>32</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J33">
         <v>14</v>
       </c>
-      <c r="C24">
-        <f>C27*1000000000</f>
-        <v>65000000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <f>C27*1000000</f>
-        <v>65000</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="K33">
+        <v>32</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J34">
         <v>15</v>
       </c>
-      <c r="G25">
-        <f>B18/(B19*B20*B21)</f>
-        <v>15.384615384615385</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26">
-        <f>C27*1000</f>
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f>B18/(B19*B20)</f>
-        <v>15.384615384615385</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <f>1/A27</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f>A27/1000</f>
-        <v>1.5384615384615385E-2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <f>C27/60</f>
-        <v>1.0833333333333333E-3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f>A28/1000</f>
-        <v>1.5384615384615384E-5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29">
-        <f>C28/60</f>
-        <v>1.8055555555555555E-5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+      <c r="K34">
+        <v>32</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/72.xlsx
+++ b/72.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="G2">
         <f>B1/(G7*B3*B4)</f>
-        <v>1.0001389081816918</v>
+        <v>1.0000111112345693</v>
       </c>
       <c r="I2">
         <v>65535</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62600</v>
+        <v>62608</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="C7">
         <f>C10*1000000000</f>
-        <v>869444.44444444438</v>
+        <v>869555.55555555562</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -624,14 +624,14 @@
       </c>
       <c r="C8">
         <f>C10*1000000</f>
-        <v>869.44444444444434</v>
+        <v>869.55555555555554</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="G8">
         <f>B1/(B2*B3*B4)</f>
-        <v>1150.1597444089457</v>
+        <v>1150.0127779197546</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="C9">
         <f>C10*1000</f>
-        <v>0.86944444444444435</v>
+        <v>0.86955555555555564</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -673,14 +673,14 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>B1/(B2*B3)</f>
-        <v>1150.1597444089457</v>
+        <v>1150.0127779197546</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
         <f>1/A10</f>
-        <v>8.6944444444444439E-4</v>
+        <v>8.695555555555556E-4</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -703,14 +703,14 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>A10/1000</f>
-        <v>1.1501597444089458</v>
+        <v>1.1500127779197546</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11">
         <f>C10/60</f>
-        <v>1.449074074074074E-5</v>
+        <v>1.4492592592592594E-5</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -733,14 +733,14 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A11/1000</f>
-        <v>1.1501597444089457E-3</v>
+        <v>1.1500127779197546E-3</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12">
         <f>C11/60</f>
-        <v>2.4151234567901235E-7</v>
+        <v>2.4154320987654323E-7</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
